--- a/test_data/my_hand.xlsx
+++ b/test_data/my_hand.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12300" firstSheet="23" activeTab="23"/>
+    <workbookView windowWidth="22188" windowHeight="10500" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="get_gripper_firmware_version" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <sheet name="set_gripper_angles" sheetId="27" r:id="rId27"/>
     <sheet name="get_gripper_angles" sheetId="28" r:id="rId28"/>
     <sheet name="set_gripper_pose" sheetId="29" r:id="rId29"/>
+    <sheet name="get_gripper_type" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="274">
   <si>
     <t>ID</t>
   </si>
@@ -165,6 +166,24 @@
     <t>设置6关节运动到20度</t>
   </si>
   <si>
+    <t>设置1关节运动到100度</t>
+  </si>
+  <si>
+    <t>设置2关节运动到100度</t>
+  </si>
+  <si>
+    <t>设置3关节运动到100度</t>
+  </si>
+  <si>
+    <t>设置4关节运动到100度</t>
+  </si>
+  <si>
+    <t>设置5关节运动到100度</t>
+  </si>
+  <si>
+    <t>设置6关节运动到100度</t>
+  </si>
+  <si>
     <t>设置关节超限</t>
   </si>
   <si>
@@ -852,7 +871,13 @@
     <t>设置rank参数超限</t>
   </si>
   <si>
-    <t>设置is_free参数超限</t>
+    <t>正确获取夹爪类型</t>
+  </si>
+  <si>
+    <t>get_gripper_type</t>
+  </si>
+  <si>
+    <t>[0,1]</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1814,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F13" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1826,7 +1851,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
@@ -1877,10 +1902,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -1894,10 +1919,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1911,10 +1936,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -1928,10 +1953,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -1951,8 +1976,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1987,10 +2012,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2007,10 +2032,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -2027,10 +2052,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2047,10 +2072,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -2067,16 +2092,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
@@ -2087,16 +2112,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -2107,10 +2132,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -2124,10 +2149,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -2187,10 +2212,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2210,10 +2235,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -2233,10 +2258,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2256,10 +2281,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -2279,10 +2304,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -2302,10 +2327,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -2325,10 +2350,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -2345,10 +2370,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -2365,10 +2390,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -2386,10 +2411,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -2406,10 +2431,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -2426,10 +2451,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -2446,10 +2471,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
@@ -2466,10 +2491,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
@@ -2531,10 +2556,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2554,10 +2579,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -2577,10 +2602,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2600,10 +2625,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -2623,10 +2648,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -2646,10 +2671,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -2669,10 +2694,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -2689,10 +2714,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -2709,10 +2734,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -2729,10 +2754,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -2749,10 +2774,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -2769,10 +2794,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -2789,10 +2814,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
@@ -2809,10 +2834,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
@@ -2836,7 +2861,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2871,10 +2896,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2891,10 +2916,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -2911,10 +2936,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2931,10 +2956,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -2951,16 +2976,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
@@ -2971,16 +2996,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -2991,10 +3016,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -3008,10 +3033,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -3070,10 +3095,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -3093,10 +3118,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3116,10 +3141,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -3139,10 +3164,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -3162,10 +3187,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -3185,10 +3210,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -3208,10 +3233,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -3228,10 +3253,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -3248,10 +3273,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -3268,10 +3293,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -3288,10 +3313,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -3308,10 +3333,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -3328,10 +3353,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
@@ -3348,10 +3373,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
@@ -3410,10 +3435,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -3430,10 +3455,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3450,10 +3475,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -3470,10 +3495,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -3490,10 +3515,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -3510,10 +3535,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -3530,10 +3555,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -3547,10 +3572,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -3606,10 +3631,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -3626,10 +3651,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3646,10 +3671,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -3666,10 +3691,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -3686,10 +3711,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -3706,10 +3731,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -3726,10 +3751,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -3743,10 +3768,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -3805,10 +3830,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -3828,10 +3853,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -3851,10 +3876,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -3874,10 +3899,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -3897,10 +3922,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -3920,10 +3945,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -3943,10 +3968,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -3963,10 +3988,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -3983,10 +4008,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -4003,10 +4028,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -4023,10 +4048,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -4043,10 +4068,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -4063,10 +4088,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
@@ -4083,10 +4108,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
@@ -4145,10 +4170,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -4165,10 +4190,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -4185,10 +4210,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -4205,10 +4230,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -4225,10 +4250,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -4245,10 +4270,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -4265,10 +4290,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -4282,10 +4307,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -4306,7 +4331,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -4343,7 +4368,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4397,10 +4422,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -4420,10 +4445,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -4443,10 +4468,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -4466,10 +4491,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -4489,10 +4514,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -4512,10 +4537,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -4535,10 +4560,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -4555,10 +4580,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -4575,10 +4600,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -4595,10 +4620,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -4615,10 +4640,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -4635,10 +4660,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -4655,10 +4680,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
@@ -4675,10 +4700,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
@@ -4737,10 +4762,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -4757,10 +4782,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -4777,10 +4802,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -4797,10 +4822,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -4817,10 +4842,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -4837,10 +4862,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -4857,10 +4882,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -4874,10 +4899,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -4936,10 +4961,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -4959,10 +4984,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -4982,10 +5007,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -5005,10 +5030,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -5028,10 +5053,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -5051,10 +5076,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -5074,10 +5099,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -5094,10 +5119,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -5114,10 +5139,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -5134,10 +5159,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -5154,10 +5179,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -5174,10 +5199,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -5194,10 +5219,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
@@ -5214,10 +5239,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
@@ -5276,10 +5301,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -5296,10 +5321,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -5316,10 +5341,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -5336,10 +5361,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -5356,10 +5381,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -5376,10 +5401,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -5396,10 +5421,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -5413,10 +5438,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -5436,8 +5461,8 @@
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -5475,10 +5500,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -5498,10 +5523,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -5521,10 +5546,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -5544,10 +5569,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -5567,10 +5592,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -5590,10 +5615,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -5613,10 +5638,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -5633,10 +5658,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -5653,10 +5678,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -5673,10 +5698,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -5693,10 +5718,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -5713,10 +5738,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -5733,10 +5758,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
@@ -5753,10 +5778,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
@@ -5818,10 +5843,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -5841,10 +5866,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -5864,10 +5889,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -5887,10 +5912,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -5910,10 +5935,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -5933,10 +5958,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -5956,10 +5981,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -5976,10 +6001,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -5996,10 +6021,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -6016,10 +6041,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -6036,10 +6061,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -6056,10 +6081,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -6076,10 +6101,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
@@ -6096,10 +6121,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
@@ -6158,10 +6183,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -6178,10 +6203,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -6198,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -6218,10 +6243,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -6238,10 +6263,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -6258,10 +6283,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -6278,10 +6303,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -6295,10 +6320,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -6342,10 +6367,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -6359,13 +6384,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E2" s="1">
         <v>50</v>
@@ -6382,13 +6407,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E3" s="1">
         <v>100</v>
@@ -6405,13 +6430,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E4" s="1">
         <v>30</v>
@@ -6425,13 +6450,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E5" s="1">
         <v>101</v>
@@ -6486,13 +6511,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
@@ -6507,13 +6532,13 @@
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="19.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.1111111111111" style="1" customWidth="1"/>
@@ -6533,13 +6558,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -6553,10 +6578,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -6579,10 +6604,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -6605,10 +6630,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -6631,10 +6656,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -6657,10 +6682,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -6683,10 +6708,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -6703,11 +6728,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="D8" s="1">
         <v>4</v>
       </c>
@@ -6715,29 +6740,6 @@
         <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" ht="28.8" spans="1:8">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6800,13 +6802,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -7147,10 +7201,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -7332,13 +7386,16 @@
         <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
       </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
@@ -7352,15 +7409,150 @@
         <v>30</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
         <v>110</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7411,10 +7603,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -7431,10 +7623,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -7451,10 +7643,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -7471,10 +7663,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -7491,10 +7683,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -7511,10 +7703,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -7531,10 +7723,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -7548,10 +7740,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1">
         <v>-1</v>

--- a/test_data/my_hand.xlsx
+++ b/test_data/my_hand.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="10500" firstSheet="10" activeTab="10"/>
+    <workbookView windowWidth="27945" windowHeight="14055" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="get_gripper_firmware_version" sheetId="1" r:id="rId1"/>
@@ -1817,7 +1817,7 @@
       <selection activeCell="F13" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -1840,7 +1840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="28.8" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1870,10 +1870,10 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.4444444444444" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.4416666666667" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:6">
+    <row r="3" ht="27" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:6">
+    <row r="4" ht="40.5" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="43.2" spans="1:6">
+    <row r="5" ht="40.5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1976,14 +1976,14 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.225" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2177,10 +2177,10 @@
       <selection activeCell="I10" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.225" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2406,7 +2406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" ht="28.8" spans="1:7">
+    <row r="11" ht="27" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="28.8" spans="1:7">
+    <row r="12" ht="27" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" ht="28.8" spans="1:7">
+    <row r="13" ht="27" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" ht="28.8" spans="1:7">
+    <row r="14" ht="27" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" ht="28.8" spans="1:7">
+    <row r="15" ht="27" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2521,10 +2521,10 @@
       <selection activeCell="I11" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.225" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2749,7 +2749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="11" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="12" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="13" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="14" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="15" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2860,14 +2860,14 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.225" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3060,10 +3060,10 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.225" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3288,7 +3288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="11" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="12" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="13" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="14" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="15" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3403,10 +3403,10 @@
       <selection activeCell="D15" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.225" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3599,10 +3599,10 @@
       <selection activeCell="G11" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.225" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3795,10 +3795,10 @@
       <selection activeCell="I15" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.225" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4023,7 +4023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="11" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="12" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="13" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="14" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="15" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4138,10 +4138,10 @@
       <selection activeCell="D18" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.225" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4334,7 +4334,7 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -4357,7 +4357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="28.8" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4387,10 +4387,10 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.225" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4615,7 +4615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="11" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="12" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="13" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="14" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="15" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4730,10 +4730,10 @@
       <selection activeCell="I10" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.225" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4926,10 +4926,10 @@
       <selection activeCell="I12" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.225" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5154,7 +5154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="43.2" spans="1:7">
+    <row r="11" s="1" customFormat="1" ht="40.5" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="43.2" spans="1:7">
+    <row r="12" s="1" customFormat="1" ht="40.5" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="43.2" spans="1:7">
+    <row r="13" s="1" customFormat="1" ht="40.5" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="43.2" spans="1:7">
+    <row r="14" s="1" customFormat="1" ht="40.5" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="43.2" spans="1:7">
+    <row r="15" s="1" customFormat="1" ht="40.5" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5269,10 +5269,10 @@
       <selection activeCell="H16" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.225" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5465,10 +5465,10 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.225" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5693,7 +5693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="11" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="12" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="13" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="14" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="15" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5808,10 +5808,10 @@
       <selection activeCell="I15" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.225" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6036,7 +6036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="11" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="12" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="13" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="14" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="15" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6151,10 +6151,10 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.225" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6347,12 +6347,12 @@
       <selection activeCell="G15" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1083333333333" style="1" customWidth="1"/>
     <col min="5" max="6" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.225" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6480,12 +6480,12 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="3" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1083333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.225" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6538,12 +6538,12 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1083333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="8" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="8" width="16.225" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6758,7 +6758,7 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -6811,7 +6811,7 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -6863,10 +6863,10 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.225" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6959,7 +6959,7 @@
       <selection activeCell="E16" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -7012,10 +7012,10 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.225" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7108,10 +7108,10 @@
       <selection activeCell="K17" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.225" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7207,10 +7207,10 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.225" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7571,10 +7571,10 @@
       <selection activeCell="J9" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.225" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7735,7 +7735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" ht="28.8" spans="1:6">
+    <row r="9" ht="27" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
